--- a/biology/Botanique/Castilleja_chromosa/Castilleja_chromosa.xlsx
+++ b/biology/Botanique/Castilleja_chromosa/Castilleja_chromosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Castilleja chromosa est une espèce végétale de la famille des Scrophulariacées, ou de la famille des Orobanchaceae selon la classification APG III. Elle est originaire du Sud des États-Unis.
 </t>
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante de 10 à 40 cm de hauteur présente plusieurs tiges érigées. Les feuilles mesurent de 2,5 à 5 cm de longueur. Celles situées près de la base sont entières et très étroites ; les plus hautes sont découpées en 3 ou 5 lobes très étroits[1].
-Appareil reproducteur
-La floraison a lieu entre avril et août.
-Les fleurs sont protégées par des bractées divisées en 3 à 5 lobes très étroits, et colorées en rouge-orangé. Le calice est lui aussi rouge-orangé, et divisé en 4 lobes. La corolle, longue de 2 à 3 cm, est en forme de tube très étroit de couleur plus pâle, bordé de rouge ou d'orange, s'achevant par deux lèvres[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante de 10 à 40 cm de hauteur présente plusieurs tiges érigées. Les feuilles mesurent de 2,5 à 5 cm de longueur. Celles situées près de la base sont entières et très étroites ; les plus hautes sont découpées en 3 ou 5 lobes très étroits.
 </t>
         </is>
       </c>
@@ -543,13 +557,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Description morphologique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette plante vit dans les zones désertiques de l'Ouest des États-Unis. Son aire de répartition s'étant, à l'ouest, de l'est de l'Oregon et du sud de l'Idaho jusqu'à l'est de la Californie, et à l'est du nord-ouest du Nouveau-Mexique au centre du Wyoming.
-Elle pousse sur des sols secs, avec une bonne exposition au soleil, souvent en association avec Artemisia tridentata.
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu entre avril et août.
+Les fleurs sont protégées par des bractées divisées en 3 à 5 lobes très étroits, et colorées en rouge-orangé. Le calice est lui aussi rouge-orangé, et divisé en 4 lobes. La corolle, longue de 2 à 3 cm, est en forme de tube très étroit de couleur plus pâle, bordé de rouge ou d'orange, s'achevant par deux lèvres.
 </t>
         </is>
       </c>
@@ -575,10 +595,46 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante vit dans les zones désertiques de l'Ouest des États-Unis. Son aire de répartition s'étant, à l'ouest, de l'est de l'Oregon et du sud de l'Idaho jusqu'à l'est de la Californie, et à l'est du nord-ouest du Nouveau-Mexique au centre du Wyoming.
+Elle pousse sur des sols secs, avec une bonne exposition au soleil, souvent en association avec Artemisia tridentata.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Castilleja_chromosa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Castilleja_chromosa</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est parfois considérée comme une sous-espèce de Castilleja applegatei (Castilleja applegatei ssp. martinii (Abrams) Chuang &amp; Heckard).
 </t>
